--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>188.0094083839076</v>
+        <v>193.6904816108794</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Total Revenue  for All Users</t>
+    <t>Total Revenue  for All Users (Kudembe)</t>
   </si>
   <si>
     <t>Month</t>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>193.6904816108794</v>
+        <v>193.4187191722489</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Total Revenue  for All Users (Kudembe)</t>
+    <t>Total Revenue  for All Users (Mthembanji)</t>
   </si>
   <si>
     <t>Month</t>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>193.4187191722489</v>
+        <v>285.2436210791907</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>285.2436210791907</v>
+        <v>297.611049791655</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>44.7293621003175</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>297.611049791655</v>
+        <v>297.6064991456664</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>44.7293621003175</v>
+        <v>133.6500699339494</v>
       </c>
     </row>
     <row r="5" spans="1:3">
